--- a/data/age/Prompts and responses/Age_Prompts_Translated_First10_Responses_GPT4_Gemini_Mistral7B.xlsx
+++ b/data/age/Prompts and responses/Age_Prompts_Translated_First10_Responses_GPT4_Gemini_Mistral7B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\NoBBQ\data\age\Prompts and responses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesselb\dev\NoBBQ\data\age\Prompts and responses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5A79D1-40AB-4036-91C5-0F567800B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BAA64E-9AA5-47F0-B138-6FC3A59A1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E2339AFF-4CEB-4DFB-A732-4519E7BFCB2E}"/>
+    <workbookView xWindow="22932" yWindow="-6180" windowWidth="30936" windowHeight="16776" xr2:uid="{E2339AFF-4CEB-4DFB-A732-4519E7BFCB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -525,12 +525,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -556,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -569,6 +581,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,21 +942,21 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="132.77734375" customWidth="1"/>
+    <col min="1" max="1" width="132.81640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,14 +983,14 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D2" t="s">
@@ -985,14 +999,14 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1026,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1031,11 +1045,11 @@
       <c r="G4" t="s">
         <v>89</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1055,14 +1069,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
@@ -1078,7 +1092,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1098,14 +1112,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1114,14 +1128,14 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1141,14 +1155,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D10" t="s">
@@ -1164,7 +1178,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1177,21 +1191,21 @@
       <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1207,7 +1221,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1227,14 +1241,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1250,7 +1264,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1270,7 +1284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1290,7 +1304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1310,14 +1324,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1326,14 +1340,14 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1353,14 +1367,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1376,7 +1390,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -1396,18 +1410,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
         <v>81</v>
       </c>
